--- a/user.xlsx
+++ b/user.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>kang</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>没写作业;又一次没写作业;如上</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>吴夏</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,7 +517,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>刘帆</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a4</t>
+          <t>乔岩</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a5</t>
+          <t>康博</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a6</t>
+          <t>黄瀚涛</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a7</t>
+          <t>万雪如</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -635,12 +635,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>没写作业;仪容仪表不好看;没打扫卫生</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,7 +652,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a8</t>
+          <t>毛彦哲</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a9</t>
+          <t>接婧</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,7 +706,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a10</t>
+          <t>刘昊</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,7 +733,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a11</t>
+          <t>张蕊</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,7 +760,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a12</t>
+          <t>胡钦耀</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a13</t>
+          <t>晋升</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,7 +814,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a14</t>
+          <t>马姝赫</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -829,7 +829,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a15</t>
+          <t>冯宜乐</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a16</t>
+          <t>李喆</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -895,7 +895,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a17</t>
+          <t>石佳奇</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -910,7 +910,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a18</t>
+          <t>刘子晔</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,7 +949,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a19</t>
+          <t>吴圳</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -976,7 +976,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a20</t>
+          <t>李昂</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1003,7 +1003,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a21</t>
+          <t>刘智乾</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,7 +1030,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a22</t>
+          <t>袁丁逸含</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,7 +1057,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a23</t>
+          <t>康卉妍</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1067,12 +1067,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>好</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a24</t>
+          <t>杨嘉诚</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a25</t>
+          <t>邵晗</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a26</t>
+          <t>方梓琪</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a27</t>
+          <t>曾健庭</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>作业写的太差</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,7 +1192,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a28</t>
+          <t>待定1</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1207,7 +1207,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,7 +1219,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a29</t>
+          <t>待定2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>a30</t>
+          <t>待定3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>没写作业</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
